--- a/3-data_analysis/plasma_metabolomics/data_preparation/metabolite/variable_info.xlsx
+++ b/3-data_analysis/plasma_metabolomics/data_preparation/metabolite/variable_info.xlsx
@@ -2878,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>87.0440001911479</v>
+        <v>87.044000191148</v>
       </c>
       <c r="C2" t="n">
         <v>34.2498</v>
@@ -3043,7 +3043,7 @@
         <v>0.0147058823529412</v>
       </c>
       <c r="E8" t="n">
-        <v>0.269480519480519</v>
+        <v>0.26948051948052</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -6960,7 +6960,7 @@
         <v>168</v>
       </c>
       <c r="B159" t="n">
-        <v>494.324169514609</v>
+        <v>494.32416951461</v>
       </c>
       <c r="C159" t="n">
         <v>572.975</v>
@@ -11519,7 +11519,7 @@
         <v>0.169117647058824</v>
       </c>
       <c r="E334" t="n">
-        <v>0.230519480519481</v>
+        <v>0.23051948051948</v>
       </c>
       <c r="F334" t="s">
         <v>197</v>
@@ -14942,7 +14942,7 @@
         <v>478</v>
       </c>
       <c r="B466" t="n">
-        <v>161.099999081961</v>
+        <v>161.09999908196</v>
       </c>
       <c r="C466" t="n">
         <v>456.085</v>
